--- a/working/etterson/seedwt.A.xlsx
+++ b/working/etterson/seedwt.A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/etterson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04CF548E-C4E1-9E4C-BB92-27E882F18840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F42093B-FA5B-D347-A987-1942EE2DD8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="3800" windowWidth="26440" windowHeight="15440" xr2:uid="{4EDD2907-DDA1-9946-A7DF-E1BC3FD2D7F6}"/>
+    <workbookView xWindow="2360" yWindow="1360" windowWidth="26440" windowHeight="15440" xr2:uid="{4EDD2907-DDA1-9946-A7DF-E1BC3FD2D7F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>cross</t>
   </si>
@@ -65,16 +65,22 @@
     <t>BC1</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
     <t>BC2</t>
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>F1a</t>
+  </si>
+  <si>
+    <t>F1b</t>
+  </si>
+  <si>
+    <t>F2a</t>
+  </si>
+  <si>
+    <t>F2b</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +487,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.46500000000000002</v>
@@ -492,7 +498,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.495</v>
@@ -503,7 +509,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0.47499999999999998</v>
@@ -514,7 +520,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.48</v>
@@ -525,7 +531,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0.46</v>
@@ -536,7 +542,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0.47499999999999998</v>

--- a/working/etterson/seedwt.A.xlsx
+++ b/working/etterson/seedwt.A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/etterson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F42093B-FA5B-D347-A987-1942EE2DD8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84CFE8A-F0CD-4748-AF88-686126C3126F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="1360" windowWidth="26440" windowHeight="15440" xr2:uid="{4EDD2907-DDA1-9946-A7DF-E1BC3FD2D7F6}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,6 +473,9 @@
       <c r="C2">
         <v>9.0476190476190491E-3</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -484,6 +487,9 @@
       <c r="C3">
         <v>6.1904761904761907E-3</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -495,6 +501,9 @@
       <c r="C4">
         <v>8.5714285714285701E-3</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -506,6 +515,9 @@
       <c r="C5">
         <v>8.5714285714285701E-3</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -517,6 +529,9 @@
       <c r="C6">
         <v>5.7142857142857143E-3</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -528,6 +543,9 @@
       <c r="C7">
         <v>5.7142857142857143E-3</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -539,6 +557,9 @@
       <c r="C8">
         <v>5.7142857142857143E-3</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -549,6 +570,9 @@
       </c>
       <c r="C9">
         <v>8.5714285714285701E-3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
